--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.7 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.7 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2414,6 +2414,28 @@
       </c>
       <c r="D161">
         <v>28.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>28.2</v>
+      </c>
+      <c r="D162">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>28</v>
+      </c>
+      <c r="D163">
+        <v>27.6</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2455,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.16125000000002</v>
+        <v>28.16049382716051</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2497,7 +2519,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.81625000000001</v>
+        <v>27.81604938271607</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2641,7 @@
         <v>0.9765263083154855</v>
       </c>
       <c r="D2">
-        <v>0.8259674504104335</v>
+        <v>0.8259688206571424</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2641,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8259674504104335</v>
+        <v>0.8259688206571424</v>
       </c>
       <c r="C4">
         <v>0.8257164139131354</v>
@@ -2673,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.687392670707453</v>
+        <v>1.676929982008173</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2689,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.036209559713633</v>
+        <v>2.023646348582196</v>
       </c>
     </row>
   </sheetData>
@@ -2699,7 +2721,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2729,10 +2751,15 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>28.4</v>
-      </c>
-      <c r="C3">
-        <v>28.8</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.7 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.7 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2436,6 +2436,61 @@
       </c>
       <c r="D163">
         <v>27.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>28.7</v>
+      </c>
+      <c r="D164">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>28.6</v>
+      </c>
+      <c r="D165">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>27.9</v>
+      </c>
+      <c r="D166">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>27.9</v>
+      </c>
+      <c r="D167">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>28.8</v>
+      </c>
+      <c r="D168">
+        <v>28.9</v>
       </c>
     </row>
   </sheetData>
@@ -2461,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2477,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2503,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.16049382716051</v>
+        <v>28.16706586826347</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2519,7 +2574,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.81604938271607</v>
+        <v>27.82934131736527</v>
       </c>
     </row>
   </sheetData>
@@ -2638,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9765263083154855</v>
+        <v>0.9765263083154854</v>
       </c>
       <c r="D2">
-        <v>0.8259688206571424</v>
+        <v>0.825328234168925</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2649,13 +2704,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9765263083154855</v>
+        <v>0.9765263083154854</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8257164139131354</v>
+        <v>0.8257164139131357</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2663,10 +2718,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8259688206571424</v>
+        <v>0.825328234168925</v>
       </c>
       <c r="C4">
-        <v>0.8257164139131354</v>
+        <v>0.8257164139131357</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2695,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.676929982008173</v>
+        <v>1.653344296601623</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2711,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.023646348582196</v>
+        <v>1.995365454863673</v>
       </c>
     </row>
   </sheetData>
@@ -2721,7 +2776,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2746,22 +2801,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>28.4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.7 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.7 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2491,6 +2491,116 @@
       </c>
       <c r="D168">
         <v>28.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>28.8</v>
+      </c>
+      <c r="D169">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>28.4</v>
+      </c>
+      <c r="D170">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>27.2</v>
+      </c>
+      <c r="D171">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>28.6</v>
+      </c>
+      <c r="D172">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>28.4</v>
+      </c>
+      <c r="D173">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>28</v>
+      </c>
+      <c r="D174">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>27.7</v>
+      </c>
+      <c r="D175">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>27.5</v>
+      </c>
+      <c r="D176">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>23.8</v>
+      </c>
+      <c r="D177">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>27.8</v>
+      </c>
+      <c r="D178">
+        <v>27.9</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2532,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2558,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.16706586826347</v>
+        <v>28.1361581920904</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2574,7 +2684,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.82934131736527</v>
+        <v>27.82824858757062</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2806,7 @@
         <v>0.9765263083154854</v>
       </c>
       <c r="D2">
-        <v>0.825328234168925</v>
+        <v>0.8264723933254048</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2718,7 +2828,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.825328234168925</v>
+        <v>0.8264723933254048</v>
       </c>
       <c r="C4">
         <v>0.8257164139131357</v>
@@ -2750,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.653344296601623</v>
+        <v>1.64304420134102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2766,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.995365454863673</v>
+        <v>1.959821938024523</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2886,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2798,7 +2908,15 @@
         <v>27.9</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>28.4</v>
       </c>
     </row>
   </sheetData>
